--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-static-text.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-static-text.xlsx
@@ -1,36 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hzero-DataInit\hzero-resource\init-data\saas\hzero-platform\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF273E62-6F1F-47CF-BF8B-87AA250E8A72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="静态文本数据" sheetId="2" r:id="rId2"/>
+    <sheet name="静态文本数据" r:id="rId5" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -2004,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-03-13</t>
+    <t>2020-05-29</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2046,6 +2037,24 @@
     <t>company_id</t>
   </si>
   <si>
+    <t>hpfm_static_text-8</t>
+  </si>
+  <si>
+    <t>HPFM.TEMPLATE_CONFIG</t>
+  </si>
+  <si>
+    <t>如何使用模板配置?</t>
+  </si>
+  <si>
+    <t>系统初始数据,请勿删除</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2019-08-20 00:00:00.0</t>
+  </si>
+  <si>
     <t>平台静态信息值</t>
   </si>
   <si>
@@ -2064,31 +2073,13 @@
     <t>text</t>
   </si>
   <si>
-    <t>hpfm_static_text-25</t>
-  </si>
-  <si>
-    <t>HPFM.TEMPLATE_CONFIG</t>
-  </si>
-  <si>
-    <t>如何使用模板配置?</t>
-  </si>
-  <si>
-    <t>系统初始数据,请勿删除</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2019-08-21 00:00:00.0</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
     <t>zh_CN</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;p&gt;1.在项目中添加如下依赖&lt;br /&gt;
+    <t>&lt;p&gt;1.在项目中添加如下依赖&lt;br /&gt;
 &amp;nbsp;&amp;nbsp;&amp;lt;dependency&amp;gt;&lt;br /&gt;
 &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;lt;groupId&amp;gt;org.hzero.boot&amp;lt;/groupId&amp;gt;&lt;br /&gt;
 &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;lt;artifactId&amp;gt;hzero-boot-platform&amp;lt;/artifactId&amp;gt;&lt;br /&gt;
@@ -2112,8 +2103,7 @@
 &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;templateConfigClient.getTemplateConfigValues(webUrl,&amp;nbsp;templateCode,&amp;nbsp;Constants.ConfigCode.CONTACT_COMPANY);&lt;br /&gt;
 &amp;nbsp;&amp;nbsp;//&amp;nbsp;获取模板下配置的企业链接信息&lt;br /&gt;
 &amp;nbsp;&amp;nbsp;Set&amp;lt;TemplateConfigVO&amp;gt;&amp;nbsp;companyLinks&amp;nbsp;=&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;templateConfigClient.getTemplateConfigValues(webUrl,&amp;nbsp;templateCode,&amp;nbsp;Constants.ConfigCode.COMPANY_LINK);&lt;/p&gt;
-</t>
+&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;templateConfigClient.getTemplateConfigValues(webUrl,&amp;nbsp;templateCode,&amp;nbsp;Constants.ConfigCode.COMPANY_LINK);&lt;/p&gt;</t>
   </si>
   <si>
     <t>en_US</t>
@@ -2122,7 +2112,7 @@
     <t>How to use template configuration items?</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;p&gt;1.Add the following dependencies to your project.&lt;br /&gt;
+    <t>&lt;p&gt;1.Add the following dependencies to your project.&lt;br /&gt;
 &amp;nbsp;&amp;nbsp;&amp;lt;dependency&amp;gt;&lt;br /&gt;
 &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;lt;groupId&amp;gt;org.hzero.boot&amp;lt;/groupId&amp;gt;&lt;br /&gt;
 &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;lt;artifactId&amp;gt;hzero-boot-platform&amp;lt;/artifactId&amp;gt;&lt;br /&gt;
@@ -2147,15 +2137,15 @@
 &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;templateConfigClient.getTemplateConfigValues(webUrl,&amp;nbsp;templateCode,&amp;nbsp;Constants.ConfigCode.CONTACT_COMPANY);&lt;br /&gt;
 &amp;nbsp;&amp;nbsp;//&amp;nbsp;Obtain the enterprise link information configured under the template&lt;br /&gt;
 &amp;nbsp;&amp;nbsp;Set&amp;lt;TemplateConfigVO&amp;gt;&amp;nbsp;companyLinks&amp;nbsp;=&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;templateConfigClient.getTemplateConfigValues(webUrl,&amp;nbsp;templateCode,&amp;nbsp;Constants.ConfigCode.COMPANY_LINK);&lt;/p&gt;
-</t>
+&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;templateConfigClient.getTemplateConfigValues(webUrl,&amp;nbsp;templateCode,&amp;nbsp;Constants.ConfigCode.COMPANY_LINK);&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
+  <fonts count="34">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2167,7 +2157,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2186,7 +2175,6 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2255,106 +2243,105 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2547,22 +2534,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2578,10 +2549,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2921,36 +2908,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
+    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -2959,21 +2946,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="45" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="46"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -3084,11 +3071,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
@@ -3126,19 +3113,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="43" t="s">
+      <c r="D25" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="43"/>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="43" t="s">
+      <c r="D26" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="43"/>
+      <c r="E26" s="27"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
@@ -3155,52 +3142,46 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
-  <cols>
-    <col min="5" max="5" width="23.44140625" customWidth="1"/>
-    <col min="6" max="6" width="32.88671875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="27" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="32">
         <v>44</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" t="s" s="33">
         <v>45</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" t="s" s="34">
         <v>9</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" t="s" s="35">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="E4" s="31" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="36">
         <v>47</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" t="s" s="37">
         <v>48</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" t="s" s="38">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3210,13 +3191,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" t="s" s="39">
         <v>53</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" t="s" s="40">
         <v>54</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" t="s" s="41">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -3225,7 +3206,7 @@
       <c r="H7" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="37" t="s">
+      <c r="I7" t="s" s="42">
         <v>58</v>
       </c>
       <c r="J7" t="s">
@@ -3237,43 +3218,43 @@
       <c r="L7" t="s">
         <v>61</v>
       </c>
-      <c r="M7" s="38" t="s">
+      <c r="M7" t="s" s="43">
         <v>62</v>
       </c>
       <c r="N7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8">
       <c r="E8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="L8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="M8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="N8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -3281,19 +3262,19 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="42" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="D10" t="s" s="44">
+        <v>71</v>
+      </c>
+      <c r="E10" t="s" s="45">
+        <v>72</v>
+      </c>
+      <c r="F10" t="s" s="46">
+        <v>73</v>
+      </c>
+      <c r="G10" t="s" s="47">
+        <v>74</v>
       </c>
       <c r="H10" t="s">
         <v>56</v>
@@ -3302,37 +3283,35 @@
         <v>57</v>
       </c>
       <c r="J10" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11">
       <c r="E11" t="s">
         <v>76</v>
       </c>
-      <c r="F11" t="str">
+      <c r="F11">
         <f>静态文本数据!$E$8</f>
-        <v>hpfm_static_text-25</v>
       </c>
       <c r="G11" t="s">
         <v>77</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="J11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12">
       <c r="E12" t="s">
         <v>76</v>
       </c>
-      <c r="F12" t="str">
+      <c r="F12">
         <f>静态文本数据!$E$8</f>
-        <v>hpfm_static_text-25</v>
       </c>
       <c r="G12" t="s">
         <v>79</v>
@@ -3345,8 +3324,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-static-text.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-static-text.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="79">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-05-29</t>
+    <t>2020-07-06</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2052,7 +2052,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>2019-08-20 00:00:00.0</t>
+    <t>2020-07-02 00:00:00.0</t>
   </si>
   <si>
     <t>平台静态信息值</t>
@@ -2079,7 +2079,7 @@
     <t>zh_CN</t>
   </si>
   <si>
-    <t>&lt;p&gt;1.在项目中添加如下依赖&lt;br /&gt;
+    <t xml:space="preserve">&lt;p&gt;1.在项目中添加如下依赖&lt;br /&gt;
 &amp;nbsp;&amp;nbsp;&amp;lt;dependency&amp;gt;&lt;br /&gt;
 &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;lt;groupId&amp;gt;org.hzero.boot&amp;lt;/groupId&amp;gt;&lt;br /&gt;
 &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;lt;artifactId&amp;gt;hzero-boot-platform&amp;lt;/artifactId&amp;gt;&lt;br /&gt;
@@ -2103,41 +2103,8 @@
 &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;templateConfigClient.getTemplateConfigValues(webUrl,&amp;nbsp;templateCode,&amp;nbsp;Constants.ConfigCode.CONTACT_COMPANY);&lt;br /&gt;
 &amp;nbsp;&amp;nbsp;//&amp;nbsp;获取模板下配置的企业链接信息&lt;br /&gt;
 &amp;nbsp;&amp;nbsp;Set&amp;lt;TemplateConfigVO&amp;gt;&amp;nbsp;companyLinks&amp;nbsp;=&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;templateConfigClient.getTemplateConfigValues(webUrl,&amp;nbsp;templateCode,&amp;nbsp;Constants.ConfigCode.COMPANY_LINK);&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>en_US</t>
-  </si>
-  <si>
-    <t>How to use template configuration items?</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;1.Add the following dependencies to your project.&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;&amp;lt;dependency&amp;gt;&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;lt;groupId&amp;gt;org.hzero.boot&amp;lt;/groupId&amp;gt;&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;lt;artifactId&amp;gt;hzero-boot-platform&amp;lt;/artifactId&amp;gt;&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;&amp;lt;/dependency&amp;gt;&lt;br /&gt;
-2.Inject the template configuration client in a class that needs to reference the template configuration.&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;@Autowired&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;private&amp;nbsp;TemplateConfigClient&amp;nbsp;templateConfigClient;&lt;br /&gt;
-3. In the method, the template configuration value is obtained by the client, where webUrl is the domain name, and&lt;br /&gt;
-templateCode is the template code assigned by the domain name.Constants.ConfigCode.XX is configured with the&lt;br /&gt;
-template configuration code defined under our selected template, which is maintained in the project using constant classes.&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;//&amp;nbsp;Obtain the LOGO information configured under the template.&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;TemplateConfigVO&amp;nbsp;logoItem&amp;nbsp;=&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;templateConfigClient.getOneTemplateConfigValue(webUrl,&amp;nbsp;templateCode,&amp;nbsp;Constants.ConfigCode.LOGO);&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;//&amp;nbsp;Get the carousel information configured under the template&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;Set&amp;lt;TemplateConfigVO&amp;gt;&amp;nbsp;carouselItems&amp;nbsp;=&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;templateConfigClient.getTemplateConfigValues(webUrl,&amp;nbsp;templateCode,&amp;nbsp;Constants.ConfigCode.CAROUSEL);&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;if&amp;nbsp;(CollectionUtils.isEmpty(carouselItems))&amp;nbsp;{&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;carouselItems&amp;nbsp;=&amp;nbsp;new&amp;nbsp;HashSet&amp;lt;&amp;gt;();&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;}&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;//&amp;nbsp;Obtain contact enterprise information configured under the template&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;Set&amp;lt;TemplateConfigVO&amp;gt;&amp;nbsp;contactCompanys&amp;nbsp;=&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;templateConfigClient.getTemplateConfigValues(webUrl,&amp;nbsp;templateCode,&amp;nbsp;Constants.ConfigCode.CONTACT_COMPANY);&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;//&amp;nbsp;Obtain the enterprise link information configured under the template&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;Set&amp;lt;TemplateConfigVO&amp;gt;&amp;nbsp;companyLinks&amp;nbsp;=&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;templateConfigClient.getTemplateConfigValues(webUrl,&amp;nbsp;templateCode,&amp;nbsp;Constants.ConfigCode.COMPANY_LINK);&lt;/p&gt;</t>
+&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;templateConfigClient.getTemplateConfigValues(webUrl,&amp;nbsp;templateCode,&amp;nbsp;Constants.ConfigCode.COMPANY_LINK);&lt;/p&gt;
+</t>
   </si>
 </sst>
 </file>
@@ -3150,7 +3117,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3306,23 +3273,6 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12">
-      <c r="E12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12">
-        <f>静态文本数据!$E$8</f>
-      </c>
-      <c r="G12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" t="s">
-        <v>80</v>
-      </c>
-      <c r="J12" t="s">
-        <v>81</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-static-text.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-static-text.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="83">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-07-06</t>
+    <t>2020-09-11</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2052,7 +2052,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>2020-07-02 00:00:00.0</t>
+    <t>2020-07-01 00:00:00.0</t>
   </si>
   <si>
     <t>平台静态信息值</t>
@@ -2073,13 +2073,16 @@
     <t>text</t>
   </si>
   <si>
+    <t>tenant_id</t>
+  </si>
+  <si>
     <t>*</t>
   </si>
   <si>
     <t>zh_CN</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;p&gt;1.在项目中添加如下依赖&lt;br /&gt;
+    <t>&lt;p&gt;1.在项目中添加如下依赖&lt;br /&gt;
 &amp;nbsp;&amp;nbsp;&amp;lt;dependency&amp;gt;&lt;br /&gt;
 &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;lt;groupId&amp;gt;org.hzero.boot&amp;lt;/groupId&amp;gt;&lt;br /&gt;
 &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;lt;artifactId&amp;gt;hzero-boot-platform&amp;lt;/artifactId&amp;gt;&lt;br /&gt;
@@ -2103,8 +2106,41 @@
 &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;templateConfigClient.getTemplateConfigValues(webUrl,&amp;nbsp;templateCode,&amp;nbsp;Constants.ConfigCode.CONTACT_COMPANY);&lt;br /&gt;
 &amp;nbsp;&amp;nbsp;//&amp;nbsp;获取模板下配置的企业链接信息&lt;br /&gt;
 &amp;nbsp;&amp;nbsp;Set&amp;lt;TemplateConfigVO&amp;gt;&amp;nbsp;companyLinks&amp;nbsp;=&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;templateConfigClient.getTemplateConfigValues(webUrl,&amp;nbsp;templateCode,&amp;nbsp;Constants.ConfigCode.COMPANY_LINK);&lt;/p&gt;
-</t>
+&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;templateConfigClient.getTemplateConfigValues(webUrl,&amp;nbsp;templateCode,&amp;nbsp;Constants.ConfigCode.COMPANY_LINK);&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>en_US</t>
+  </si>
+  <si>
+    <t>How to use template configuration items?</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;1.Add the following dependencies to your project.&lt;br /&gt;
+&amp;nbsp;&amp;nbsp;&amp;lt;dependency&amp;gt;&lt;br /&gt;
+&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;lt;groupId&amp;gt;org.hzero.boot&amp;lt;/groupId&amp;gt;&lt;br /&gt;
+&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;lt;artifactId&amp;gt;hzero-boot-platform&amp;lt;/artifactId&amp;gt;&lt;br /&gt;
+&amp;nbsp;&amp;nbsp;&amp;lt;/dependency&amp;gt;&lt;br /&gt;
+2.Inject the template configuration client in a class that needs to reference the template configuration.&lt;br /&gt;
+&amp;nbsp;&amp;nbsp;@Autowired&lt;br /&gt;
+&amp;nbsp;&amp;nbsp;private&amp;nbsp;TemplateConfigClient&amp;nbsp;templateConfigClient;&lt;br /&gt;
+3. In the method, the template configuration value is obtained by the client, where webUrl is the domain name, and&lt;br /&gt;
+templateCode is the template code assigned by the domain name.Constants.ConfigCode.XX is configured with the&lt;br /&gt;
+template configuration code defined under our selected template, which is maintained in the project using constant classes.&lt;br /&gt;
+&amp;nbsp;&amp;nbsp;//&amp;nbsp;Obtain the LOGO information configured under the template.&lt;br /&gt;
+&amp;nbsp;&amp;nbsp;TemplateConfigVO&amp;nbsp;logoItem&amp;nbsp;=&lt;br /&gt;
+&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;templateConfigClient.getOneTemplateConfigValue(webUrl,&amp;nbsp;templateCode,&amp;nbsp;Constants.ConfigCode.LOGO);&lt;br /&gt;
+&amp;nbsp;&amp;nbsp;//&amp;nbsp;Get the carousel information configured under the template&lt;br /&gt;
+&amp;nbsp;&amp;nbsp;Set&amp;lt;TemplateConfigVO&amp;gt;&amp;nbsp;carouselItems&amp;nbsp;=&lt;br /&gt;
+&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;templateConfigClient.getTemplateConfigValues(webUrl,&amp;nbsp;templateCode,&amp;nbsp;Constants.ConfigCode.CAROUSEL);&lt;br /&gt;
+&amp;nbsp;&amp;nbsp;if&amp;nbsp;(CollectionUtils.isEmpty(carouselItems))&amp;nbsp;{&lt;br /&gt;
+&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;carouselItems&amp;nbsp;=&amp;nbsp;new&amp;nbsp;HashSet&amp;lt;&amp;gt;();&lt;br /&gt;
+&amp;nbsp;&amp;nbsp;}&lt;br /&gt;
+&amp;nbsp;&amp;nbsp;//&amp;nbsp;Obtain contact enterprise information configured under the template&lt;br /&gt;
+&amp;nbsp;&amp;nbsp;Set&amp;lt;TemplateConfigVO&amp;gt;&amp;nbsp;contactCompanys&amp;nbsp;=&lt;br /&gt;
+&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;templateConfigClient.getTemplateConfigValues(webUrl,&amp;nbsp;templateCode,&amp;nbsp;Constants.ConfigCode.CONTACT_COMPANY);&lt;br /&gt;
+&amp;nbsp;&amp;nbsp;//&amp;nbsp;Obtain the enterprise link information configured under the template&lt;br /&gt;
+&amp;nbsp;&amp;nbsp;Set&amp;lt;TemplateConfigVO&amp;gt;&amp;nbsp;companyLinks&amp;nbsp;=&lt;br /&gt;
+&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;templateConfigClient.getTemplateConfigValues(webUrl,&amp;nbsp;templateCode,&amp;nbsp;Constants.ConfigCode.COMPANY_LINK);&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -3117,7 +3153,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3252,16 +3288,19 @@
       <c r="J10" t="s">
         <v>75</v>
       </c>
+      <c r="K10" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F11">
         <f>静态文本数据!$E$8</f>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s">
         <v>66</v>
@@ -3270,7 +3309,30 @@
         <v>67</v>
       </c>
       <c r="J11" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="K11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12">
+        <f>静态文本数据!$E$8</f>
+      </c>
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-static-text.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-static-text.xlsx
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-09-11</t>
+    <t>2020-09-22</t>
   </si>
   <si>
     <t>hzero</t>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-static-text.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-static-text.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-09-22</t>
+    <t>2021-02-02</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2037,6 +2037,12 @@
     <t>company_id</t>
   </si>
   <si>
+    <t>last_update_date</t>
+  </si>
+  <si>
+    <t>last_updated_by</t>
+  </si>
+  <si>
     <t>hpfm_static_text-8</t>
   </si>
   <si>
@@ -2053,6 +2059,12 @@
   </si>
   <si>
     <t>2020-07-01 00:00:00.0</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>平台静态信息值</t>
@@ -3153,7 +3165,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3227,34 +3239,46 @@
       <c r="N7" t="s">
         <v>63</v>
       </c>
+      <c r="O7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N8" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="O8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -3265,19 +3289,19 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s" s="44">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s" s="45">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s" s="46">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="47">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s">
         <v>56</v>
@@ -3286,53 +3310,53 @@
         <v>57</v>
       </c>
       <c r="J10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F11">
         <f>静态文本数据!$E$8</f>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F12">
         <f>静态文本数据!$E$8</f>
       </c>
       <c r="G12" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J12" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-static-text.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-static-text.xlsx
@@ -21,12 +21,12 @@
     <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
     <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="88">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2021-02-02</t>
+    <t>2021-10-13</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2064,7 +2064,16 @@
     <t>now</t>
   </si>
   <si>
-    <t>2</t>
+    <t>542</t>
+  </si>
+  <si>
+    <t>hpfm_static_text-9</t>
+  </si>
+  <si>
+    <t>HZERO.SHORTCUT_KEY</t>
+  </si>
+  <si>
+    <t>快捷键说明</t>
   </si>
   <si>
     <t>平台静态信息值</t>
@@ -2094,7 +2103,7 @@
     <t>zh_CN</t>
   </si>
   <si>
-    <t>&lt;p&gt;1.在项目中添加如下依赖&lt;br /&gt;
+    <t xml:space="preserve">&lt;p&gt;1.在项目中添加如下依赖&lt;br /&gt;
 &amp;nbsp;&amp;nbsp;&amp;lt;dependency&amp;gt;&lt;br /&gt;
 &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;lt;groupId&amp;gt;org.hzero.boot&amp;lt;/groupId&amp;gt;&lt;br /&gt;
 &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;lt;artifactId&amp;gt;hzero-boot-platform&amp;lt;/artifactId&amp;gt;&lt;br /&gt;
@@ -2118,41 +2127,26 @@
 &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;templateConfigClient.getTemplateConfigValues(webUrl,&amp;nbsp;templateCode,&amp;nbsp;Constants.ConfigCode.CONTACT_COMPANY);&lt;br /&gt;
 &amp;nbsp;&amp;nbsp;//&amp;nbsp;获取模板下配置的企业链接信息&lt;br /&gt;
 &amp;nbsp;&amp;nbsp;Set&amp;lt;TemplateConfigVO&amp;gt;&amp;nbsp;companyLinks&amp;nbsp;=&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;templateConfigClient.getTemplateConfigValues(webUrl,&amp;nbsp;templateCode,&amp;nbsp;Constants.ConfigCode.COMPANY_LINK);&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>en_US</t>
-  </si>
-  <si>
-    <t>How to use template configuration items?</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;1.Add the following dependencies to your project.&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;&amp;lt;dependency&amp;gt;&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;lt;groupId&amp;gt;org.hzero.boot&amp;lt;/groupId&amp;gt;&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;lt;artifactId&amp;gt;hzero-boot-platform&amp;lt;/artifactId&amp;gt;&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;&amp;lt;/dependency&amp;gt;&lt;br /&gt;
-2.Inject the template configuration client in a class that needs to reference the template configuration.&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;@Autowired&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;private&amp;nbsp;TemplateConfigClient&amp;nbsp;templateConfigClient;&lt;br /&gt;
-3. In the method, the template configuration value is obtained by the client, where webUrl is the domain name, and&lt;br /&gt;
-templateCode is the template code assigned by the domain name.Constants.ConfigCode.XX is configured with the&lt;br /&gt;
-template configuration code defined under our selected template, which is maintained in the project using constant classes.&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;//&amp;nbsp;Obtain the LOGO information configured under the template.&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;TemplateConfigVO&amp;nbsp;logoItem&amp;nbsp;=&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;templateConfigClient.getOneTemplateConfigValue(webUrl,&amp;nbsp;templateCode,&amp;nbsp;Constants.ConfigCode.LOGO);&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;//&amp;nbsp;Get the carousel information configured under the template&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;Set&amp;lt;TemplateConfigVO&amp;gt;&amp;nbsp;carouselItems&amp;nbsp;=&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;templateConfigClient.getTemplateConfigValues(webUrl,&amp;nbsp;templateCode,&amp;nbsp;Constants.ConfigCode.CAROUSEL);&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;if&amp;nbsp;(CollectionUtils.isEmpty(carouselItems))&amp;nbsp;{&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;carouselItems&amp;nbsp;=&amp;nbsp;new&amp;nbsp;HashSet&amp;lt;&amp;gt;();&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;}&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;//&amp;nbsp;Obtain contact enterprise information configured under the template&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;Set&amp;lt;TemplateConfigVO&amp;gt;&amp;nbsp;contactCompanys&amp;nbsp;=&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;templateConfigClient.getTemplateConfigValues(webUrl,&amp;nbsp;templateCode,&amp;nbsp;Constants.ConfigCode.CONTACT_COMPANY);&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;//&amp;nbsp;Obtain the enterprise link information configured under the template&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;Set&amp;lt;TemplateConfigVO&amp;gt;&amp;nbsp;companyLinks&amp;nbsp;=&lt;br /&gt;
-&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;templateConfigClient.getTemplateConfigValues(webUrl,&amp;nbsp;templateCode,&amp;nbsp;Constants.ConfigCode.COMPANY_LINK);&lt;/p&gt;</t>
+&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;templateConfigClient.getTemplateConfigValues(webUrl,&amp;nbsp;templateCode,&amp;nbsp;Constants.ConfigCode.COMPANY_LINK);&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;前端全局快捷键：&lt;/p&gt;
+&lt;ul&gt;
+	&lt;li&gt;Ctrl + /，快速定位到菜单搜索&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;C7N-UI开发的Table支持的快捷键如下：&lt;/p&gt;
+&lt;ul&gt;
+	&lt;li&gt;Alt + n，焦点在 table 单元格内（非 querybar 区）时，新增行（代码可配置是首行还是末行新建，仅支持行内编辑的情况）&lt;/li&gt;
+	&lt;li&gt;Ctrl + s，焦点在table单元格，则保存当前 table&lt;/li&gt;
+	&lt;li&gt;Ctrl + d（或 Command + d）：&lt;/li&gt;
+	&lt;li&gt;焦点在 table 单元格，则复制上一行的单元格内容&lt;/li&gt;
+	&lt;li&gt;焦点在 table 某行， 则复制上一行的所有单元格内容&lt;/li&gt;
+	&lt;li&gt;Delete，当前焦点元素内时，删除 1 个字符&lt;/li&gt;
+	&lt;li&gt;Alt + delete，焦点在 table 单元格内，删除当前行，弹出二次提示框&lt;/li&gt;
+	&lt;li&gt;Shift + 方向键，焦点在 table 某行，当前 table 可多选的情况，可选择多行&lt;/li&gt;
+&lt;/ul&gt;
+</t>
   </si>
 </sst>
 </file>
@@ -3165,7 +3159,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3281,81 +3275,115 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="9">
+      <c r="E9" t="s">
         <v>74</v>
       </c>
-      <c r="D10" t="s" s="44">
+      <c r="F9" t="s">
         <v>75</v>
       </c>
-      <c r="E10" t="s" s="45">
+      <c r="G9" t="s">
         <v>76</v>
       </c>
-      <c r="F10" t="s" s="46">
-        <v>77</v>
-      </c>
-      <c r="G10" t="s" s="47">
-        <v>78</v>
-      </c>
-      <c r="H10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" t="s">
-        <v>80</v>
+      <c r="I9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" t="s">
+        <v>70</v>
+      </c>
+      <c r="N9" t="s">
+        <v>70</v>
+      </c>
+      <c r="O9" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11">
-      <c r="E11" t="s">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" t="s" s="44">
+        <v>78</v>
+      </c>
+      <c r="E11" t="s" s="45">
+        <v>79</v>
+      </c>
+      <c r="F11" t="s" s="46">
+        <v>80</v>
+      </c>
+      <c r="G11" t="s" s="47">
         <v>81</v>
       </c>
-      <c r="F11">
-        <f>静态文本数据!$E$8</f>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" t="s">
         <v>82</v>
       </c>
-      <c r="H11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" t="s">
-        <v>69</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>83</v>
-      </c>
-      <c r="K11" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12">
+        <v>84</v>
+      </c>
+      <c r="F12" t="n">
         <f>静态文本数据!$E$8</f>
+        <v>0.0</v>
       </c>
       <c r="G12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s">
-        <v>85</v>
+        <v>68</v>
+      </c>
+      <c r="I12" t="s">
+        <v>69</v>
       </c>
       <c r="J12" t="s">
         <v>86</v>
       </c>
       <c r="K12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" t="n">
+        <f>静态文本数据!$E$9</f>
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" t="s">
         <v>70</v>
       </c>
     </row>
